--- a/final report/precisionRate_ann.xlsx
+++ b/final report/precisionRate_ann.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A973B-9F88-414F-8BED-9F78496B14D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C7296D-683F-4AEB-82D2-5AB6C1A3A23F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_ann" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,81 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="總整理" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_ann!$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -911,6 +985,5977 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>ANN</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82779456193353396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83648722878330095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8396342579877315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86431383319600774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88972809667673702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84290030211480305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84818731117824742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85519986940547255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.861027190332326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87613293051359498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83987915407854896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85316173188513578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85818551643683949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8699975532956038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87915407854984895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79299847792998401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83918858255073947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85150919659500945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87295979691944947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89123867069486395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391185088"/>
+        <c:axId val="390885440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391185088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390885440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390885440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391185088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8E993F4-A5A7-6342-9191-8D7A47EB7FE5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18F9E505-8FF4-9443-AA82-47EE41F4A737}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.300000012"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.95000000000000007" min="0.75000000000000011"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.24</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{167F723D-2456-2544-AD3A-D2806948EDCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2B6F7E7C-BDA0-514A-ADB1-CF117CD142C1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EAA6F7DB-1834-2D46-8894-1173CA21B64B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BBD1A5A6-9FAE-B64A-935F-CCAEAA9B736F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC937B86-2249-0343-8A05-46142B8C9C22}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.30</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_食品</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_食品</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E6269AEF-2A02-9340-B2B8-471C6AC57D5F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D9961F27-26CE-9E48-A857-7EC05D6BFC8E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4819568A-C9C3-D245-9FBF-6A768863640D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A724B8AB-5A40-8546-91BE-54E92FEEA70B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FC3DD5F7-03AB-1148-940C-6EE7C992A7E8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.42</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_航運</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_航運</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DC4A2C26-53AF-5940-B3ED-F1B2E35BB2FD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CD6A9CCC-DF2B-214D-8EF2-420BC296BA00}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4A01142B-1E59-774F-9CE2-1877E1C8E18F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DD1D118F-D34B-B941-B756-A902A5E88BDA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{368DF2A0-05C1-6E47-BF77-D19666846A60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.44</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.46</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_通訊</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_通訊</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8FF23374-C0FF-0846-B440-82B7904FF286}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DD0B24A7-B695-4E4C-BFD7-67E5BA4F8022}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{51FEBA92-5EEE-0A4D-A95A-34AC1DDF01C1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A338A1AC-0A3E-6546-A088-1D32B68AFE70}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{24D845A5-D337-AE43-A317-3C2AA6472AF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.58</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8E993F4-A5A7-6342-9191-8D7A47EB7FE5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.57</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18F9E505-8FF4-9443-AA82-47EE41F4A737}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130176</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2279366-C7D9-FDE2-88B6-8D1E44E89036}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7569201" y="10541000"/>
+              <a:ext cx="4946649" cy="4095750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D493583-3F90-1386-43AA-78437D9899A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4746625" y="4089400"/>
+              <a:ext cx="4591050" cy="2832100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155AE0D8-FB6E-BA4B-A69E-A962EB261742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4797425" y="4222750"/>
+              <a:ext cx="4591050" cy="2825750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10384152-88F6-444E-9965-61AF69AEB09E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4641850" y="4470400"/>
+              <a:ext cx="4594225" cy="2825750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AB9365-2128-3601-0C14-40DAEDA5FAD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4489450" y="4406900"/>
+              <a:ext cx="4594225" cy="2825750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368023</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE8EE22-C53B-0E49-BA2B-6E9E0C8CE728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5421243" y="1588328"/>
+              <a:ext cx="6443455" cy="4184098"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>162340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825E4FA3-1F88-4B88-81D2-19EBDB97B95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -1210,11 +7255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4835,6 +10880,8 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4843,10 +10890,10 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6511,6 +12558,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6519,10 +12567,10 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -8187,6 +14235,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8195,10 +14244,10 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -9863,6 +15912,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9871,10 +15921,10 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -11539,6 +17589,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11546,11 +17597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:O30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
@@ -12359,5 +18410,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>